--- a/Flask/sheet.xlsx
+++ b/Flask/sheet.xlsx
@@ -55,6 +55,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -101,7 +102,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -410,95 +414,125 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
+      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="3" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="3" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="3" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="3" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="3" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="3" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="3" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="3" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="3" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>0</v>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Flask/sheet.xlsx
+++ b/Flask/sheet.xlsx
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>5</v>
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
